--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Tgfb3-Acvrl1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Tgfb3-Acvrl1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.828226333333333</v>
+        <v>1.039483</v>
       </c>
       <c r="H2">
-        <v>5.484679</v>
+        <v>3.118449</v>
       </c>
       <c r="I2">
-        <v>0.02222218683751419</v>
+        <v>0.01443400247257094</v>
       </c>
       <c r="J2">
-        <v>0.02377799715221334</v>
+        <v>0.01491631751620889</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>40.10475833333333</v>
+        <v>19.77408333333333</v>
       </c>
       <c r="N2">
-        <v>120.314275</v>
+        <v>59.32225</v>
       </c>
       <c r="O2">
-        <v>0.504709706355426</v>
+        <v>0.3380388258879848</v>
       </c>
       <c r="P2">
-        <v>0.5148319456493028</v>
+        <v>0.339186328349942</v>
       </c>
       <c r="Q2">
-        <v>73.32057527696944</v>
+        <v>20.55482346558333</v>
       </c>
       <c r="R2">
-        <v>659.885177492725</v>
+        <v>184.99341119025</v>
       </c>
       <c r="S2">
-        <v>0.0112157533933372</v>
+        <v>0.004879253248692151</v>
       </c>
       <c r="T2">
-        <v>0.01224167253751758</v>
+        <v>0.00505941097082482</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.828226333333333</v>
+        <v>1.039483</v>
       </c>
       <c r="H3">
-        <v>5.484679</v>
+        <v>3.118449</v>
       </c>
       <c r="I3">
-        <v>0.02222218683751419</v>
+        <v>0.01443400247257094</v>
       </c>
       <c r="J3">
-        <v>0.02377799715221334</v>
+        <v>0.01491631751620889</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>53.874554</v>
       </c>
       <c r="O3">
-        <v>0.2259998685057908</v>
+        <v>0.3069959581674471</v>
       </c>
       <c r="P3">
-        <v>0.2305324239938148</v>
+        <v>0.3080380828904952</v>
       </c>
       <c r="Q3">
-        <v>32.83162610646289</v>
+        <v>18.66722767186067</v>
       </c>
       <c r="R3">
-        <v>295.484634958166</v>
+        <v>168.005049046746</v>
       </c>
       <c r="S3">
-        <v>0.005022211303189322</v>
+        <v>0.004431180419258217</v>
       </c>
       <c r="T3">
-        <v>0.005481599321217768</v>
+        <v>0.0045947938514789</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.828226333333333</v>
+        <v>1.039483</v>
       </c>
       <c r="H4">
-        <v>5.484679</v>
+        <v>3.118449</v>
       </c>
       <c r="I4">
-        <v>0.02222218683751419</v>
+        <v>0.01443400247257094</v>
       </c>
       <c r="J4">
-        <v>0.02377799715221334</v>
+        <v>0.01491631751620889</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>10.51121033333333</v>
+        <v>12.46730333333333</v>
       </c>
       <c r="N4">
-        <v>31.533631</v>
+        <v>37.40191</v>
       </c>
       <c r="O4">
-        <v>0.1322813077860492</v>
+        <v>0.2131290998296268</v>
       </c>
       <c r="P4">
-        <v>0.1349342844073753</v>
+        <v>0.2138525852639604</v>
       </c>
       <c r="Q4">
-        <v>19.21687152660544</v>
+        <v>12.95954987084333</v>
       </c>
       <c r="R4">
-        <v>172.951843739449</v>
+        <v>116.63594883759</v>
       </c>
       <c r="S4">
-        <v>0.002939579936732306</v>
+        <v>0.003076305953917653</v>
       </c>
       <c r="T4">
-        <v>0.003208467030374516</v>
+        <v>0.003189893063459368</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.828226333333333</v>
+        <v>1.039483</v>
       </c>
       <c r="H5">
-        <v>5.484679</v>
+        <v>3.118449</v>
       </c>
       <c r="I5">
-        <v>0.02222218683751419</v>
+        <v>0.01443400247257094</v>
       </c>
       <c r="J5">
-        <v>0.02377799715221334</v>
+        <v>0.01491631751620889</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.68691</v>
+        <v>0.593699</v>
       </c>
       <c r="N5">
-        <v>9.37382</v>
+        <v>1.187398</v>
       </c>
       <c r="O5">
-        <v>0.05898374826630448</v>
+        <v>0.01014931056513554</v>
       </c>
       <c r="P5">
-        <v>0.04011113385145983</v>
+        <v>0.006789175527058808</v>
       </c>
       <c r="Q5">
-        <v>8.568732283963334</v>
+        <v>0.617140017617</v>
       </c>
       <c r="R5">
-        <v>51.41239370378</v>
+        <v>3.702840105702</v>
       </c>
       <c r="S5">
-        <v>0.001310747874350722</v>
+        <v>0.0001464951737920568</v>
       </c>
       <c r="T5">
-        <v>0.0009537624264920602</v>
+        <v>0.000101269497834884</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.828226333333333</v>
+        <v>1.039483</v>
       </c>
       <c r="H6">
-        <v>5.484679</v>
+        <v>3.118449</v>
       </c>
       <c r="I6">
-        <v>0.02222218683751419</v>
+        <v>0.01443400247257094</v>
       </c>
       <c r="J6">
-        <v>0.02377799715221334</v>
+        <v>0.01491631751620889</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.199977000000001</v>
+        <v>7.703215333333333</v>
       </c>
       <c r="N6">
-        <v>18.599931</v>
+        <v>23.109646</v>
       </c>
       <c r="O6">
-        <v>0.07802536908642958</v>
+        <v>0.1316868055498057</v>
       </c>
       <c r="P6">
-        <v>0.07959021209804724</v>
+        <v>0.1321338279685434</v>
       </c>
       <c r="Q6">
-        <v>11.334961217461</v>
+        <v>8.007361384339331</v>
       </c>
       <c r="R6">
-        <v>102.014650957149</v>
+        <v>72.066252459054</v>
       </c>
       <c r="S6">
-        <v>0.001733894329904642</v>
+        <v>0.001900767676910865</v>
       </c>
       <c r="T6">
-        <v>0.001892495836611423</v>
+        <v>0.001970950132610916</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>189.934761</v>
       </c>
       <c r="I7">
-        <v>0.769555656015713</v>
+        <v>0.8791289547788569</v>
       </c>
       <c r="J7">
-        <v>0.8234334600373736</v>
+        <v>0.9085052224491242</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>40.10475833333333</v>
+        <v>19.77408333333333</v>
       </c>
       <c r="N7">
-        <v>120.314275</v>
+        <v>59.32225</v>
       </c>
       <c r="O7">
-        <v>0.504709706355426</v>
+        <v>0.3380388258879848</v>
       </c>
       <c r="P7">
-        <v>0.5148319456493028</v>
+        <v>0.339186328349942</v>
       </c>
       <c r="Q7">
-        <v>2539.095896334808</v>
+        <v>1251.928597303584</v>
       </c>
       <c r="R7">
-        <v>22851.86306701327</v>
+        <v>11267.35737573225</v>
       </c>
       <c r="S7">
-        <v>0.3884022091718477</v>
+        <v>0.2971797196775761</v>
       </c>
       <c r="T7">
-        <v>0.4239298503437784</v>
+        <v>0.3081525506892658</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>189.934761</v>
       </c>
       <c r="I8">
-        <v>0.769555656015713</v>
+        <v>0.8791289547788569</v>
       </c>
       <c r="J8">
-        <v>0.8234334600373736</v>
+        <v>0.9085052224491242</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>53.874554</v>
       </c>
       <c r="O8">
-        <v>0.2259998685057908</v>
+        <v>0.3069959581674471</v>
       </c>
       <c r="P8">
-        <v>0.2305324239938148</v>
+        <v>0.3080380828904952</v>
       </c>
       <c r="Q8">
         <v>1136.961170885733</v>
@@ -948,10 +948,10 @@
         <v>10232.65053797159</v>
       </c>
       <c r="S8">
-        <v>0.1739194770674387</v>
+        <v>0.2698890358250814</v>
       </c>
       <c r="T8">
-        <v>0.1898281115400298</v>
+        <v>0.2798542070192311</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>189.934761</v>
       </c>
       <c r="I9">
-        <v>0.769555656015713</v>
+        <v>0.8791289547788569</v>
       </c>
       <c r="J9">
-        <v>0.8234334600373736</v>
+        <v>0.9085052224491242</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>10.51121033333333</v>
+        <v>12.46730333333333</v>
       </c>
       <c r="N9">
-        <v>31.533631</v>
+        <v>37.40191</v>
       </c>
       <c r="O9">
-        <v>0.1322813077860492</v>
+        <v>0.2131290998296268</v>
       </c>
       <c r="P9">
-        <v>0.1349342844073753</v>
+        <v>0.2138525852639604</v>
       </c>
       <c r="Q9">
-        <v>665.4814074941323</v>
+        <v>789.3247596437234</v>
       </c>
       <c r="R9">
-        <v>5989.332667447191</v>
+        <v>7103.92283679351</v>
       </c>
       <c r="S9">
-        <v>0.1017978285919095</v>
+        <v>0.1873679627661785</v>
       </c>
       <c r="T9">
-        <v>0.1111094046872321</v>
+        <v>0.1942861905465547</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>189.934761</v>
       </c>
       <c r="I10">
-        <v>0.769555656015713</v>
+        <v>0.8791289547788569</v>
       </c>
       <c r="J10">
-        <v>0.8234334600373736</v>
+        <v>0.9085052224491242</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.68691</v>
+        <v>0.593699</v>
       </c>
       <c r="N10">
-        <v>9.37382</v>
+        <v>1.187398</v>
       </c>
       <c r="O10">
-        <v>0.05898374826630448</v>
+        <v>0.01014931056513554</v>
       </c>
       <c r="P10">
-        <v>0.04011113385145983</v>
+        <v>0.006789175527058808</v>
       </c>
       <c r="Q10">
-        <v>296.73571022617</v>
+        <v>37.588025890313</v>
       </c>
       <c r="R10">
-        <v>1780.41426135702</v>
+        <v>225.528155341878</v>
       </c>
       <c r="S10">
-        <v>0.04539127709134162</v>
+        <v>0.00892255278885362</v>
       </c>
       <c r="T10">
-        <v>0.03302884973332979</v>
+        <v>0.006168001422456712</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>189.934761</v>
       </c>
       <c r="I11">
-        <v>0.769555656015713</v>
+        <v>0.8791289547788569</v>
       </c>
       <c r="J11">
-        <v>0.8234334600373736</v>
+        <v>0.9085052224491242</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>6.199977000000001</v>
+        <v>7.703215333333333</v>
       </c>
       <c r="N11">
-        <v>18.599931</v>
+        <v>23.109646</v>
       </c>
       <c r="O11">
-        <v>0.07802536908642958</v>
+        <v>0.1316868055498057</v>
       </c>
       <c r="P11">
-        <v>0.07959021209804724</v>
+        <v>0.1321338279685434</v>
       </c>
       <c r="Q11">
-        <v>392.530383233499</v>
+        <v>487.7027877560673</v>
       </c>
       <c r="R11">
-        <v>3532.773449101492</v>
+        <v>4389.325089804606</v>
       </c>
       <c r="S11">
-        <v>0.06004486409317545</v>
+        <v>0.1157696837211673</v>
       </c>
       <c r="T11">
-        <v>0.06553724373300347</v>
+        <v>0.1200442727716158</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.4007523333333333</v>
+        <v>0.3690693333333333</v>
       </c>
       <c r="H12">
-        <v>1.202257</v>
+        <v>1.107208</v>
       </c>
       <c r="I12">
-        <v>0.004871165601616667</v>
+        <v>0.005124804994293743</v>
       </c>
       <c r="J12">
-        <v>0.005212203580597617</v>
+        <v>0.005296051365434103</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>40.10475833333333</v>
+        <v>19.77408333333333</v>
       </c>
       <c r="N12">
-        <v>120.314275</v>
+        <v>59.32225</v>
       </c>
       <c r="O12">
-        <v>0.504709706355426</v>
+        <v>0.3380388258879848</v>
       </c>
       <c r="P12">
-        <v>0.5148319456493028</v>
+        <v>0.339186328349942</v>
       </c>
       <c r="Q12">
-        <v>16.07207547985277</v>
+        <v>7.29800775311111</v>
       </c>
       <c r="R12">
-        <v>144.648679318675</v>
+        <v>65.682069778</v>
       </c>
       <c r="S12">
-        <v>0.0024585245604006</v>
+        <v>0.001732383063175937</v>
       </c>
       <c r="T12">
-        <v>0.002683408910519334</v>
+        <v>0.00179634821739429</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.4007523333333333</v>
+        <v>0.3690693333333333</v>
       </c>
       <c r="H13">
-        <v>1.202257</v>
+        <v>1.107208</v>
       </c>
       <c r="I13">
-        <v>0.004871165601616667</v>
+        <v>0.005124804994293743</v>
       </c>
       <c r="J13">
-        <v>0.005212203580597617</v>
+        <v>0.005296051365434103</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>53.874554</v>
       </c>
       <c r="O13">
-        <v>0.2259998685057908</v>
+        <v>0.3069959581674471</v>
       </c>
       <c r="P13">
-        <v>0.2305324239938148</v>
+        <v>0.3080380828904952</v>
       </c>
       <c r="Q13">
-        <v>7.196784407597556</v>
+        <v>6.627815242803555</v>
       </c>
       <c r="R13">
-        <v>64.771059668378</v>
+        <v>59.650337185232</v>
       </c>
       <c r="S13">
-        <v>0.001100882785435298</v>
+        <v>0.001573294419644526</v>
       </c>
       <c r="T13">
-        <v>0.00120158192578441</v>
+        <v>0.001631385509497911</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.4007523333333333</v>
+        <v>0.3690693333333333</v>
       </c>
       <c r="H14">
-        <v>1.202257</v>
+        <v>1.107208</v>
       </c>
       <c r="I14">
-        <v>0.004871165601616667</v>
+        <v>0.005124804994293743</v>
       </c>
       <c r="J14">
-        <v>0.005212203580597617</v>
+        <v>0.005296051365434103</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>10.51121033333333</v>
+        <v>12.46730333333333</v>
       </c>
       <c r="N14">
-        <v>31.533631</v>
+        <v>37.40191</v>
       </c>
       <c r="O14">
-        <v>0.1322813077860492</v>
+        <v>0.2131290998296268</v>
       </c>
       <c r="P14">
-        <v>0.1349342844073753</v>
+        <v>0.2138525852639604</v>
       </c>
       <c r="Q14">
-        <v>4.212392067240778</v>
+        <v>4.601299329697778</v>
       </c>
       <c r="R14">
-        <v>37.911528605167</v>
+        <v>41.41169396728</v>
       </c>
       <c r="S14">
-        <v>0.0006443641562242697</v>
+        <v>0.001092245075236201</v>
       </c>
       <c r="T14">
-        <v>0.000703304960333499</v>
+        <v>0.001132574276188811</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.4007523333333333</v>
+        <v>0.3690693333333333</v>
       </c>
       <c r="H15">
-        <v>1.202257</v>
+        <v>1.107208</v>
       </c>
       <c r="I15">
-        <v>0.004871165601616667</v>
+        <v>0.005124804994293743</v>
       </c>
       <c r="J15">
-        <v>0.005212203580597617</v>
+        <v>0.005296051365434103</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.68691</v>
+        <v>0.593699</v>
       </c>
       <c r="N15">
-        <v>9.37382</v>
+        <v>1.187398</v>
       </c>
       <c r="O15">
-        <v>0.05898374826630448</v>
+        <v>0.01014931056513554</v>
       </c>
       <c r="P15">
-        <v>0.04011113385145983</v>
+        <v>0.006789175527058808</v>
       </c>
       <c r="Q15">
-        <v>1.878290118623333</v>
+        <v>0.2191160941306666</v>
       </c>
       <c r="R15">
-        <v>11.26974071174</v>
+        <v>1.314696564784</v>
       </c>
       <c r="S15">
-        <v>0.0002873196056092391</v>
+        <v>5.201323747284489E-05</v>
       </c>
       <c r="T15">
-        <v>0.0002090673954824092</v>
+        <v>3.595582232025159E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.4007523333333333</v>
+        <v>0.3690693333333333</v>
       </c>
       <c r="H16">
-        <v>1.202257</v>
+        <v>1.107208</v>
       </c>
       <c r="I16">
-        <v>0.004871165601616667</v>
+        <v>0.005124804994293743</v>
       </c>
       <c r="J16">
-        <v>0.005212203580597617</v>
+        <v>0.005296051365434103</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>6.199977000000001</v>
+        <v>7.703215333333333</v>
       </c>
       <c r="N16">
-        <v>18.599931</v>
+        <v>23.109646</v>
       </c>
       <c r="O16">
-        <v>0.07802536908642958</v>
+        <v>0.1316868055498057</v>
       </c>
       <c r="P16">
-        <v>0.07959021209804724</v>
+        <v>0.1321338279685434</v>
       </c>
       <c r="Q16">
-        <v>2.484655249363</v>
+        <v>2.843020547596444</v>
       </c>
       <c r="R16">
-        <v>22.361897244267</v>
+        <v>25.587184928368</v>
       </c>
       <c r="S16">
-        <v>0.0003800744939472603</v>
+        <v>0.0006748691987642335</v>
       </c>
       <c r="T16">
-        <v>0.0004148403884779656</v>
+        <v>0.0006997875400328389</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>16.149006</v>
+        <v>6.985879</v>
       </c>
       <c r="H17">
-        <v>32.298012</v>
+        <v>13.971758</v>
       </c>
       <c r="I17">
-        <v>0.1962920137562131</v>
+        <v>0.0970041787687547</v>
       </c>
       <c r="J17">
-        <v>0.1400231512834484</v>
+        <v>0.06683039504177611</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>40.10475833333333</v>
+        <v>19.77408333333333</v>
       </c>
       <c r="N17">
-        <v>120.314275</v>
+        <v>59.32225</v>
       </c>
       <c r="O17">
-        <v>0.504709706355426</v>
+        <v>0.3380388258879848</v>
       </c>
       <c r="P17">
-        <v>0.5148319456493028</v>
+        <v>0.339186328349942</v>
       </c>
       <c r="Q17">
-        <v>647.6519829535499</v>
+        <v>138.1393535025833</v>
       </c>
       <c r="R17">
-        <v>3885.9118977213</v>
+        <v>828.8361210155</v>
       </c>
       <c r="S17">
-        <v>0.09907048462281358</v>
+        <v>0.03279117869721802</v>
       </c>
       <c r="T17">
-        <v>0.07208839141120441</v>
+        <v>0.02266795631639621</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>16.149006</v>
+        <v>6.985879</v>
       </c>
       <c r="H18">
-        <v>32.298012</v>
+        <v>13.971758</v>
       </c>
       <c r="I18">
-        <v>0.1962920137562131</v>
+        <v>0.0970041787687547</v>
       </c>
       <c r="J18">
-        <v>0.1400231512834484</v>
+        <v>0.06683039504177611</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>53.874554</v>
       </c>
       <c r="O18">
-        <v>0.2259998685057908</v>
+        <v>0.3069959581674471</v>
       </c>
       <c r="P18">
-        <v>0.2305324239938148</v>
+        <v>0.3080380828904952</v>
       </c>
       <c r="Q18">
-        <v>290.006831931108</v>
+        <v>125.4537051409887</v>
       </c>
       <c r="R18">
-        <v>1740.040991586648</v>
+        <v>752.722230845932</v>
       </c>
       <c r="S18">
-        <v>0.04436196929764104</v>
+        <v>0.02977989080736018</v>
       </c>
       <c r="T18">
-        <v>0.032279876480626</v>
+        <v>0.02058630676748317</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>16.149006</v>
+        <v>6.985879</v>
       </c>
       <c r="H19">
-        <v>32.298012</v>
+        <v>13.971758</v>
       </c>
       <c r="I19">
-        <v>0.1962920137562131</v>
+        <v>0.0970041787687547</v>
       </c>
       <c r="J19">
-        <v>0.1400231512834484</v>
+        <v>0.06683039504177611</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>10.51121033333333</v>
+        <v>12.46730333333333</v>
       </c>
       <c r="N19">
-        <v>31.533631</v>
+        <v>37.40191</v>
       </c>
       <c r="O19">
-        <v>0.1322813077860492</v>
+        <v>0.2131290998296268</v>
       </c>
       <c r="P19">
-        <v>0.1349342844073753</v>
+        <v>0.2138525852639604</v>
       </c>
       <c r="Q19">
-        <v>169.745598740262</v>
+        <v>87.09507254296334</v>
       </c>
       <c r="R19">
-        <v>1018.473592441572</v>
+        <v>522.57043525778</v>
       </c>
       <c r="S19">
-        <v>0.02596576428762902</v>
+        <v>0.02067441330069688</v>
       </c>
       <c r="T19">
-        <v>0.01889392371889777</v>
+        <v>0.01429185275389559</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>16.149006</v>
+        <v>6.985879</v>
       </c>
       <c r="H20">
-        <v>32.298012</v>
+        <v>13.971758</v>
       </c>
       <c r="I20">
-        <v>0.1962920137562131</v>
+        <v>0.0970041787687547</v>
       </c>
       <c r="J20">
-        <v>0.1400231512834484</v>
+        <v>0.06683039504177611</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>4.68691</v>
+        <v>0.593699</v>
       </c>
       <c r="N20">
-        <v>9.37382</v>
+        <v>1.187398</v>
       </c>
       <c r="O20">
-        <v>0.05898374826630448</v>
+        <v>0.01014931056513554</v>
       </c>
       <c r="P20">
-        <v>0.04011113385145983</v>
+        <v>0.006789175527058808</v>
       </c>
       <c r="Q20">
-        <v>75.68893771146</v>
+        <v>4.147509376421</v>
       </c>
       <c r="R20">
-        <v>302.75575084584</v>
+        <v>16.590037505684</v>
       </c>
       <c r="S20">
-        <v>0.01157803872608245</v>
+        <v>0.0009845255364400191</v>
       </c>
       <c r="T20">
-        <v>0.005616487363433608</v>
+        <v>0.0004537232824812987</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>16.149006</v>
+        <v>6.985879</v>
       </c>
       <c r="H21">
-        <v>32.298012</v>
+        <v>13.971758</v>
       </c>
       <c r="I21">
-        <v>0.1962920137562131</v>
+        <v>0.0970041787687547</v>
       </c>
       <c r="J21">
-        <v>0.1400231512834484</v>
+        <v>0.06683039504177611</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>6.199977000000001</v>
+        <v>7.703215333333333</v>
       </c>
       <c r="N21">
-        <v>18.599931</v>
+        <v>23.109646</v>
       </c>
       <c r="O21">
-        <v>0.07802536908642958</v>
+        <v>0.1316868055498057</v>
       </c>
       <c r="P21">
-        <v>0.07959021209804724</v>
+        <v>0.1321338279685434</v>
       </c>
       <c r="Q21">
-        <v>100.123465772862</v>
+        <v>53.81373022961132</v>
       </c>
       <c r="R21">
-        <v>600.740794637172</v>
+        <v>322.882381377668</v>
       </c>
       <c r="S21">
-        <v>0.01531575682204704</v>
+        <v>0.01277417042703959</v>
       </c>
       <c r="T21">
-        <v>0.01114447230928661</v>
+        <v>0.008830555921519838</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>0.5807443333333333</v>
+        <v>0.3102503333333334</v>
       </c>
       <c r="H22">
-        <v>1.742233</v>
+        <v>0.930751</v>
       </c>
       <c r="I22">
-        <v>0.007058977788943139</v>
+        <v>0.004308058985523854</v>
       </c>
       <c r="J22">
-        <v>0.007553187946366982</v>
+        <v>0.004452013627456771</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>40.10475833333333</v>
+        <v>19.77408333333333</v>
       </c>
       <c r="N22">
-        <v>120.314275</v>
+        <v>59.32225</v>
       </c>
       <c r="O22">
-        <v>0.504709706355426</v>
+        <v>0.3380388258879848</v>
       </c>
       <c r="P22">
-        <v>0.5148319456493028</v>
+        <v>0.339186328349942</v>
       </c>
       <c r="Q22">
-        <v>23.29061114178611</v>
+        <v>6.134915945527778</v>
       </c>
       <c r="R22">
-        <v>209.615500276075</v>
+        <v>55.21424350975001</v>
       </c>
       <c r="S22">
-        <v>0.003562734607026966</v>
+        <v>0.001456291201322667</v>
       </c>
       <c r="T22">
-        <v>0.003888622446282975</v>
+        <v>0.001510062156060969</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>0.5807443333333333</v>
+        <v>0.3102503333333334</v>
       </c>
       <c r="H23">
-        <v>1.742233</v>
+        <v>0.930751</v>
       </c>
       <c r="I23">
-        <v>0.007058977788943139</v>
+        <v>0.004308058985523854</v>
       </c>
       <c r="J23">
-        <v>0.007553187946366982</v>
+        <v>0.004452013627456771</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>53.874554</v>
       </c>
       <c r="O23">
-        <v>0.2259998685057908</v>
+        <v>0.3069959581674471</v>
       </c>
       <c r="P23">
-        <v>0.2305324239938148</v>
+        <v>0.3080380828904952</v>
       </c>
       <c r="Q23">
-        <v>10.42911398212022</v>
+        <v>5.571532778894889</v>
       </c>
       <c r="R23">
-        <v>93.86202583908201</v>
+        <v>50.14379501005401</v>
       </c>
       <c r="S23">
-        <v>0.001595328052086447</v>
+        <v>0.001322556696102776</v>
       </c>
       <c r="T23">
-        <v>0.001741254726156844</v>
+        <v>0.001371389742804143</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>0.5807443333333333</v>
+        <v>0.3102503333333334</v>
       </c>
       <c r="H24">
-        <v>1.742233</v>
+        <v>0.930751</v>
       </c>
       <c r="I24">
-        <v>0.007058977788943139</v>
+        <v>0.004308058985523854</v>
       </c>
       <c r="J24">
-        <v>0.007553187946366982</v>
+        <v>0.004452013627456771</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>10.51121033333333</v>
+        <v>12.46730333333333</v>
       </c>
       <c r="N24">
-        <v>31.533631</v>
+        <v>37.40191</v>
       </c>
       <c r="O24">
-        <v>0.1322813077860492</v>
+        <v>0.2131290998296268</v>
       </c>
       <c r="P24">
-        <v>0.1349342844073753</v>
+        <v>0.2138525852639604</v>
       </c>
       <c r="Q24">
-        <v>6.10432583755811</v>
+        <v>3.867985014934445</v>
       </c>
       <c r="R24">
-        <v>54.938932538023</v>
+        <v>34.81186513441</v>
       </c>
       <c r="S24">
-        <v>0.0009337708135540722</v>
+        <v>0.0009181727335976343</v>
       </c>
       <c r="T24">
-        <v>0.001019184010537442</v>
+        <v>0.000952074623862013</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>0.5807443333333333</v>
+        <v>0.3102503333333334</v>
       </c>
       <c r="H25">
-        <v>1.742233</v>
+        <v>0.930751</v>
       </c>
       <c r="I25">
-        <v>0.007058977788943139</v>
+        <v>0.004308058985523854</v>
       </c>
       <c r="J25">
-        <v>0.007553187946366982</v>
+        <v>0.004452013627456771</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>4.68691</v>
+        <v>0.593699</v>
       </c>
       <c r="N25">
-        <v>9.37382</v>
+        <v>1.187398</v>
       </c>
       <c r="O25">
-        <v>0.05898374826630448</v>
+        <v>0.01014931056513554</v>
       </c>
       <c r="P25">
-        <v>0.04011113385145983</v>
+        <v>0.006789175527058808</v>
       </c>
       <c r="Q25">
-        <v>2.721896423343333</v>
+        <v>0.1841953126496667</v>
       </c>
       <c r="R25">
-        <v>16.33137854006</v>
+        <v>1.105171875898</v>
       </c>
       <c r="S25">
-        <v>0.0004163649689204567</v>
+        <v>4.372382857700437E-05</v>
       </c>
       <c r="T25">
-        <v>0.000302966932721959</v>
+        <v>3.022550196566182E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.5807443333333333</v>
+        <v>0.3102503333333334</v>
       </c>
       <c r="H26">
-        <v>1.742233</v>
+        <v>0.930751</v>
       </c>
       <c r="I26">
-        <v>0.007058977788943139</v>
+        <v>0.004308058985523854</v>
       </c>
       <c r="J26">
-        <v>0.007553187946366982</v>
+        <v>0.004452013627456771</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>6.199977000000001</v>
+        <v>7.703215333333333</v>
       </c>
       <c r="N26">
-        <v>18.599931</v>
+        <v>23.109646</v>
       </c>
       <c r="O26">
-        <v>0.07802536908642958</v>
+        <v>0.1316868055498057</v>
       </c>
       <c r="P26">
-        <v>0.07959021209804724</v>
+        <v>0.1321338279685434</v>
       </c>
       <c r="Q26">
-        <v>3.600601509547</v>
+        <v>2.389925124905111</v>
       </c>
       <c r="R26">
-        <v>32.405413585923</v>
+        <v>21.509326124146</v>
       </c>
       <c r="S26">
-        <v>0.0005507793473551971</v>
+        <v>0.0005673145259237733</v>
       </c>
       <c r="T26">
-        <v>0.000601159830667762</v>
+        <v>0.0005882616027639837</v>
       </c>
     </row>
   </sheetData>
